--- a/Input_File.xlsx
+++ b/Input_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2602db5c6f59e6f/Desktop/wip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC1048E851196A7A5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB195ED2-D49D-40A8-9E48-72F1DCAF6FA8}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC1048E851196A7A5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83EC4C55-0AF1-4BAB-83D7-722E2A099885}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,16 +221,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -516,7 +519,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,30 +546,30 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -584,13 +587,13 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -598,11 +601,11 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -673,16 +676,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
